--- a/test.xlsx
+++ b/test.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="New Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +414,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,56 +441,354 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>0</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>192.168.1.1</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>192.168.1.2</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>192.168.1.3</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>192.168.1.4</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>192.168.1.5</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>192.168.1.6</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>192.168.1.7</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>192.168.1.8</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>192.168.1.9</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>192.168.1.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>192.168.1.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>192.168.1.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>192.168.1.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>192.168.1.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>192.168.1.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>192.168.1.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>192.168.1.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>192.168.1.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>192.168.1.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>192.168.1.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>192.168.1.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>192.168.1.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>192.168.1.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>192.168.1.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>192.168.1.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>192.168.1.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>192.168.1.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>192.168.1.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>192.168.1.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>192.168.1.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>192.168.1.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>192.168.1.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>192.168.1.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>192.168.1.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>192.168.1.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>192.168.1.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>192.168.1.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>192.168.1.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>192.168.1.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>192.168.1.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>192.168.1.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>192.168.1.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>192.168.1.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>192.168.1.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>192.168.1.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>192.168.1.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>192.168.1.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>192.168.1.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>192.168.1.49</t>
+        </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="B1" type="list">
+      <formula1>=$A:$A</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>